--- a/Semantic_Analysis/Result/Word_vs_Word_Similarity/Word_vs_Word_Similarity_Result.xlsx
+++ b/Semantic_Analysis/Result/Word_vs_Word_Similarity/Word_vs_Word_Similarity_Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amman\Desktop\Result\Word_vs_Word_Similarity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master_Of_Engg_IT\SE Project\Aman-Patel\semantic-analysis\Semantic_Analysis\Result\Word_vs_Word_Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72669D2A-4759-4152-83B4-D7276E3488D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763484D6-0D32-48C3-A227-DF5192C87203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,10 +152,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,7 +212,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> vs Categories</a:t>
+              <a:t> vs Categories (text-embedding-3-small)</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -243,7 +243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1652,16 +1652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,31 +1969,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
